--- a/09_1.6-2022_3/Вариант 3/Вариант 3/Сессия 1/Пункты выдачи_import.xlsx
+++ b/09_1.6-2022_3/Вариант 3/Вариант 3/Сессия 1/Пункты выдачи_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kseniaharitonova/Downloads/пункты выдачи/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Чураков\09_1.6-2022_3\Вариант 3\Вариант 3\Сессия 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB8A79DD-67A9-D248-B1A8-39B005BA51C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C685E653-E26F-4DC2-8D9B-C9FA7B08EEC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1500" windowWidth="26360" windowHeight="16060" xr2:uid="{62DA4C0E-3D55-AD46-9C32-396450569A68}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8880" xr2:uid="{62DA4C0E-3D55-AD46-9C32-396450569A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>344288, г. Талнах, ул. Чехова, 1</t>
   </si>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>190949, г. Талнах, ул. Мичурина, 26</t>
+  </si>
+  <si>
+    <t>AddressName</t>
+  </si>
+  <si>
+    <t>AddressID</t>
   </si>
 </sst>
 </file>
@@ -499,191 +499,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0C6089-A787-E24B-BFA7-958D720C3DE6}">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A36"/>
+      <selection sqref="A1:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
